--- a/202009待补交资料/兰州文理学院试卷命制细目表8K - 算法.xlsx
+++ b/202009待补交资料/兰州文理学院试卷命制细目表8K - 算法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="11625"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>兰州文理学院试卷命制细目表(A卷)</t>
   </si>
@@ -62,7 +62,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">学期软件工程专业离散数据课程     </t>
+      <t xml:space="preserve">学期软件工程专业算法分析与设计课程     </t>
     </r>
     <r>
       <rPr>
@@ -165,8 +165,100 @@
     <t>章        节</t>
   </si>
   <si>
-    <t>10
+    <t>2
+  3</t>
+  </si>
+  <si>
+    <t>1
+  3</t>
+  </si>
+  <si>
+    <t>3
+  3</t>
+  </si>
+  <si>
+    <t>3
+  5</t>
+  </si>
+  <si>
+    <t>4
+  5</t>
+  </si>
+  <si>
+    <t>2
+ 10</t>
+  </si>
+  <si>
+    <t>5
   4</t>
+  </si>
+  <si>
+    <t>6
+  1</t>
+  </si>
+  <si>
+    <t>5
+  9</t>
+  </si>
+  <si>
+    <t>6
+  4</t>
+  </si>
+  <si>
+    <t>2
+ 11</t>
+  </si>
+  <si>
+    <t>4
+  4</t>
+  </si>
+  <si>
+    <t>2
+  8</t>
+  </si>
+  <si>
+    <t>2
+  5</t>
+  </si>
+  <si>
+    <t>2
+  2</t>
+  </si>
+  <si>
+    <t>3
+  1</t>
+  </si>
+  <si>
+    <t>2
+  4</t>
+  </si>
+  <si>
+    <t>3
+ 10</t>
+  </si>
+  <si>
+    <t>5
+  3</t>
+  </si>
+  <si>
+    <t>5
+  1</t>
+  </si>
+  <si>
+    <t>2
+  1</t>
+  </si>
+  <si>
+    <t>3
+  2</t>
+  </si>
+  <si>
+    <t>5
+  7</t>
+  </si>
+  <si>
+    <t>5
+ 11</t>
   </si>
   <si>
     <t>基       本     题     
@@ -284,9 +376,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -331,16 +423,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,6 +491,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -405,65 +552,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -492,6 +584,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -510,6 +632,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -564,42 +734,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -607,48 +741,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,17 +884,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,15 +923,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -842,30 +934,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,6 +957,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -897,10 +989,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -909,133 +1001,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1453,8 +1545,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="AO5" sqref="AO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1758,128 +1850,128 @@
         <v>14</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="T5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AB5" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC5" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD5" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE5" s="10" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="AG5" s="10" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="AH5" s="10" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AI5" s="10" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AJ5" s="10" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AK5" s="10" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="AL5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="AM5" s="10" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="AN5" s="10" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AO5" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AP5" s="19"/>
       <c r="AQ5" s="20"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:43">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C6" s="11">
         <v>1</v>
@@ -1958,7 +2050,7 @@
     <row r="7" ht="30" customHeight="1" spans="1:43">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -2027,7 +2119,7 @@
     <row r="8" ht="30" customHeight="1" spans="1:43">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -2096,7 +2188,7 @@
     <row r="9" ht="30" customHeight="1" spans="1:43">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -2149,7 +2241,7 @@
     <row r="10" ht="30" customHeight="1" spans="1:43">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -2201,10 +2293,10 @@
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:43">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
@@ -2283,7 +2375,7 @@
     <row r="12" ht="30" customHeight="1" spans="1:43">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -2372,7 +2464,7 @@
     <row r="13" ht="30" customHeight="1" spans="1:43">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -2427,7 +2519,7 @@
     <row r="14" ht="30" customHeight="1" spans="1:43">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -2477,10 +2569,10 @@
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:43">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C15" s="11">
         <v>1</v>
@@ -2559,7 +2651,7 @@
     <row r="16" ht="30" customHeight="1" spans="1:43">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -2648,7 +2740,7 @@
     <row r="17" ht="30" customHeight="1" spans="1:43">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -2703,7 +2795,7 @@
     <row r="18" ht="30" customHeight="1" spans="1:43">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -2753,7 +2845,7 @@
     </row>
     <row r="19" ht="16.15" customHeight="1" spans="1:43">
       <c r="A19" s="13" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -2890,7 +2982,7 @@
     </row>
     <row r="22" ht="36" customHeight="1" spans="1:43">
       <c r="A22" s="12" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
